--- a/data/namangan_2022_10.xlsx
+++ b/data/namangan_2022_10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5281FFF4-2DE8-4098-8F0A-DA0EE39926BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC558A7A-C7F0-4533-9643-E580A78E5223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="510" windowWidth="13635" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="165" windowWidth="13635" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -580,6 +580,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -862,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="I1073" workbookViewId="0">
+      <selection activeCell="P1115" sqref="P1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +918,7 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
